--- a/Product/SettingSource/role_card.xlsx
+++ b/Product/SettingSource/role_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>德行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caocao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +524,14 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -520,8 +550,14 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -540,8 +576,14 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -561,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -572,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -583,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -594,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -605,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -616,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -635,8 +677,11 @@
       <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -647,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -658,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -669,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -680,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -691,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>

--- a/Product/SettingSource/role_card.xlsx
+++ b/Product/SettingSource/role_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +542,11 @@
       <c r="H1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -556,8 +571,11 @@
       <c r="H2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -582,8 +600,11 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -603,7 +624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -614,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -625,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -636,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -647,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -658,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -681,7 +702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -692,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -703,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -714,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -725,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -736,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>

--- a/Product/SettingSource/role_card.xlsx
+++ b/Product/SettingSource/role_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -163,6 +163,22 @@
   </si>
   <si>
     <t>model逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAOCAO_DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +561,11 @@
       <c r="I1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -574,8 +593,11 @@
       <c r="I2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -603,8 +625,11 @@
       <c r="I3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -624,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -635,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -646,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -657,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -668,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -679,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -701,8 +726,11 @@
       <c r="H10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -713,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -724,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -735,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -746,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -757,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>

--- a/Product/SettingSource/role_card.xlsx
+++ b/Product/SettingSource/role_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIUBEI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CAOCAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,18 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GUOJIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZHUGELIANG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUNCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SHANGXIANG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,6 +167,162 @@
   </si>
   <si>
     <t>CAOCAO_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LVBU_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIAOCHAN_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diaochan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guanyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUANYU_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangfei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHANGFEI_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiahoudun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIAHOUDUN_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhugeliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHUGELIANG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shangxiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHANGXIANG_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huanggai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUANGGAI_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHAOYUN_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMAYI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simayi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMAYI_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YUEYING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YUEYING_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GANNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ganning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GANNING_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIANWEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dianwei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIANWEI_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHANGHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanghe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHANGHE_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHOUTAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhoutai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHOUTAI_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHOUYU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhouyu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHOUYU_DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,13 +669,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -544,25 +691,25 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -582,51 +729,51 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -648,6 +795,12 @@
       <c r="F4">
         <v>5</v>
       </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -659,6 +812,21 @@
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -670,6 +838,21 @@
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -681,6 +864,21 @@
       <c r="C7">
         <v>2</v>
       </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -691,6 +889,21 @@
       </c>
       <c r="C8">
         <v>2</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -698,10 +911,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -709,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -724,10 +952,10 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -735,10 +963,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -746,10 +989,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -757,10 +1015,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -768,10 +1041,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>3</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -779,10 +1067,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -790,10 +1093,129 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>3</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Product/SettingSource/role_card.xlsx
+++ b/Product/SettingSource/role_card.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -323,6 +323,30 @@
   </si>
   <si>
     <t>ZHOUYU_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple_atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple_tex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardSimple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,18 +693,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +736,14 @@
       <c r="J1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -743,8 +774,14 @@
       <c r="J2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -775,8 +812,14 @@
       <c r="J3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -801,8 +844,14 @@
       <c r="J4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -827,8 +876,14 @@
       <c r="J5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -853,8 +908,14 @@
       <c r="J6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -879,8 +940,14 @@
       <c r="J7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -905,8 +972,14 @@
       <c r="J8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -931,8 +1004,14 @@
       <c r="J9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -957,8 +1036,14 @@
       <c r="J10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -983,8 +1068,14 @@
       <c r="J11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1009,8 +1100,14 @@
       <c r="J12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1035,8 +1132,14 @@
       <c r="J13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1061,8 +1164,14 @@
       <c r="J14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1087,8 +1196,14 @@
       <c r="J15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1113,8 +1228,14 @@
       <c r="J16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1139,8 +1260,14 @@
       <c r="J17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1165,8 +1292,14 @@
       <c r="J18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1191,8 +1324,14 @@
       <c r="J19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1216,6 +1355,12 @@
       </c>
       <c r="J20" t="s">
         <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
